--- a/Server Api/src/main/resources/templates/products.xlsx
+++ b/Server Api/src/main/resources/templates/products.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Documents\Java\nits\NIts Internship\Server Api\src\main\resources\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Documents\Java\nits\Nits_Internship\Server Api\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22C8699-0796-47B5-A17B-0D48FDC4E33A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4185CB13-3AD2-484B-B75C-329A10B9C835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BDE730C4-7622-4CE6-8876-39AAB7F8F7D7}"/>
   </bookViews>
@@ -184,11 +184,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -517,32 +517,32 @@
     <col min="3" max="3" width="30.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.5546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="35.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="32.5546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="37.88671875" style="1" customWidth="1"/>
     <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
